--- a/data/trans_camb/P25_11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 13,25</t>
+          <t>-3,94; 8,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,4</t>
+          <t>-6,15; 4,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 5,6</t>
+          <t>-1,42; 13,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 7,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 11,84</t>
+          <t>-10,64; 5,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,45</t>
+          <t>-6,87; 8,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,09</t>
+          <t>-7,26; 11,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 5,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 5,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 11,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 336,07</t>
+          <t>-40,29; 209,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 138,54</t>
+          <t>-57,61; 143,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 137,71</t>
+          <t>-23,13; 315,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 54,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 67,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 83,96</t>
+          <t>-41,02; 37,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 72,38</t>
+          <t>-26,7; 64,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 60,3</t>
+          <t>-30,34; 80,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 75,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,93; 52,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,0; 51,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 109,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,25</t>
+          <t>-4,37; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,49</t>
+          <t>-2,7; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,89</t>
+          <t>-2,62; 4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,28</t>
+          <t>-5,75; 2,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,74</t>
+          <t>-4,21; 5,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,01</t>
+          <t>0,51; 10,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 1,98</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 4,04</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 6,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>46,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 40,83</t>
+          <t>-66,44; 95,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 155,95</t>
+          <t>-44,26; 194,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 150,21</t>
+          <t>-44,58; 181,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 21,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 45,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 110,77</t>
+          <t>-40,71; 36,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 11,79</t>
+          <t>-30,45; 66,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 46,21</t>
+          <t>1,27; 134,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 83,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,81; 34,78</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; 65,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 122,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,73</t>
+          <t>-7,17; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; -0,61</t>
+          <t>-7,05; 0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 1,32</t>
+          <t>-4,35; 5,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,9</t>
+          <t>-2,4; 5,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,02</t>
+          <t>-4,75; 2,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,37</t>
+          <t>-4,22; 3,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 2,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 0,31</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 2,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,8%</t>
+          <t>-46,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,3%</t>
+          <t>-44,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,74%</t>
+          <t>-15,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-28,25%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 22,72</t>
+          <t>-81,17; 20,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,98; -7,49</t>
+          <t>-75,94; 20,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 32,73</t>
+          <t>-53,08; 147,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 116,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 57,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 105,86</t>
+          <t>-27,95; 104,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 42,68</t>
+          <t>-50,92; 51,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 8,67</t>
+          <t>-48,22; 71,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,31; 35,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-42,01; 43,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-54,36; 7,8</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-40,73; 49,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,22</t>
+          <t>-3,88; 6,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,67</t>
+          <t>-3,06; 5,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,18</t>
+          <t>0,64; 9,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,91</t>
+          <t>2,4; 11,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 6,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 6,83</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>74,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 51,11</t>
+          <t>-51,87; 149,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 41,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 58,27</t>
+          <t>-37,52; 116,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 31,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 35,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 87,3</t>
+          <t>5,01; 128,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 25,65</t>
+          <t>17,67; 153,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,99; 64,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 96,97</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 99,47</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 1,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 1,87</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 3,59</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 3,65</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 4,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 7,15</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 2,09</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 2,18</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 4,56</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,14%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>37,08%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; 36,32</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,56; 43,68</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 76,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 40,64</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 49,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 78,81</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 28,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 29,34</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 60,84</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
